--- a/assets/public/Chapter_6_Building_A_Model/documents/resources/Question_6.08.xlsm 2018-09-19/Sample Model Question Final.xlsx
+++ b/assets/public/Chapter_6_Building_A_Model/documents/resources/Question_6.08.xlsm 2018-09-19/Sample Model Question Final.xlsx
@@ -5,16 +5,16 @@
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Prashant.COMPRO\Dropbox\HBP - Spreadsheet Modeling\Chapter_6_Building_A_Model\documents\resources\Question_6.8.xlsm 2018-09-12\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kartik.COMPRO\Dropbox\HBP - Spreadsheet Modeling\Chapter_6_Building_A_Model\documents\resources\Question_6.08.xlsm 2018-09-19\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9000"/>
+    <workbookView xWindow="0" yWindow="450" windowWidth="24000" windowHeight="9000"/>
   </bookViews>
   <sheets>
     <sheet name="data table " sheetId="4" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179021" concurrentCalc="0"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -116,13 +116,14 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="6">
+  <numFmts count="7">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="0.0%"/>
     <numFmt numFmtId="166" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="167" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="168" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="171" formatCode="m/d/yyyy;@"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -301,7 +302,6 @@
     <xf numFmtId="44" fontId="0" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="168" fontId="2" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="2" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="167" fontId="2" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -321,6 +321,7 @@
     <xf numFmtId="168" fontId="2" fillId="6" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="2" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="46">
     <cellStyle name="Comma" xfId="2" builtinId="3"/>
@@ -719,9 +720,7 @@
   </sheetPr>
   <dimension ref="A1:P34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -737,7 +736,7 @@
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="12">
+      <c r="B1" s="11">
         <v>500000</v>
       </c>
       <c r="C1" s="5"/>
@@ -759,7 +758,7 @@
       <c r="A2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="13">
+      <c r="B2" s="12">
         <v>4</v>
       </c>
       <c r="C2" s="5" t="s">
@@ -783,7 +782,7 @@
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="17">
+      <c r="B3" s="16">
         <v>400000</v>
       </c>
       <c r="C3" s="5"/>
@@ -805,7 +804,7 @@
       <c r="A4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="18">
+      <c r="B4" s="17">
         <v>4</v>
       </c>
       <c r="C4" s="5"/>
@@ -827,7 +826,7 @@
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="14">
+      <c r="B5" s="13">
         <v>500000</v>
       </c>
       <c r="C5" s="5" t="s">
@@ -851,7 +850,7 @@
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="14">
+      <c r="B6" s="13">
         <v>50000</v>
       </c>
       <c r="C6" s="5" t="s">
@@ -875,7 +874,7 @@
       <c r="A7" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="15">
+      <c r="B7" s="14">
         <v>5</v>
       </c>
       <c r="C7" s="5"/>
@@ -897,7 +896,7 @@
       <c r="A8" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="16">
+      <c r="B8" s="15">
         <v>0.1</v>
       </c>
       <c r="C8" s="5"/>
@@ -919,7 +918,7 @@
       <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="16">
+      <c r="B9" s="15">
         <f>1/2</f>
         <v>0.5</v>
       </c>
@@ -942,7 +941,7 @@
       <c r="A10" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="19">
+      <c r="B10" s="18">
         <f>B9*B8</f>
         <v>0.05</v>
       </c>
@@ -965,7 +964,7 @@
       <c r="A11" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="16">
+      <c r="B11" s="15">
         <v>0.05</v>
       </c>
       <c r="C11" s="5"/>
@@ -987,7 +986,7 @@
       <c r="A12" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="13">
+      <c r="B12" s="12">
         <v>2</v>
       </c>
       <c r="C12" s="5"/>
@@ -1009,7 +1008,7 @@
       <c r="A13" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B13" s="16">
+      <c r="B13" s="15">
         <v>0.06</v>
       </c>
       <c r="C13" s="5"/>
@@ -1031,7 +1030,7 @@
       <c r="A14" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="16">
+      <c r="B14" s="15">
         <v>0.15</v>
       </c>
       <c r="C14" s="5"/>
@@ -1082,37 +1081,37 @@
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B16" s="11">
+      <c r="B16" s="28">
         <v>40909</v>
       </c>
-      <c r="C16" s="11">
+      <c r="C16" s="28">
         <v>41455</v>
       </c>
-      <c r="D16" s="11">
+      <c r="D16" s="28">
         <v>41820</v>
       </c>
-      <c r="E16" s="11">
+      <c r="E16" s="28">
         <v>42185</v>
       </c>
-      <c r="F16" s="11">
+      <c r="F16" s="28">
         <v>42551</v>
       </c>
-      <c r="G16" s="11">
+      <c r="G16" s="28">
         <v>42916</v>
       </c>
-      <c r="H16" s="11">
+      <c r="H16" s="28">
         <v>43281</v>
       </c>
-      <c r="I16" s="11">
+      <c r="I16" s="28">
         <v>43646</v>
       </c>
-      <c r="J16" s="11">
+      <c r="J16" s="28">
         <v>44012</v>
       </c>
-      <c r="K16" s="11">
+      <c r="K16" s="28">
         <v>44377</v>
       </c>
-      <c r="L16" s="11">
+      <c r="L16" s="28">
         <v>44742</v>
       </c>
     </row>
@@ -1120,60 +1119,60 @@
       <c r="A17" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="20">
+      <c r="B17" s="19">
         <f>B1+(B2*B3)</f>
         <v>2100000</v>
       </c>
-      <c r="C17" s="27"/>
-      <c r="D17" s="27"/>
-      <c r="E17" s="27"/>
-      <c r="F17" s="27"/>
-      <c r="G17" s="27"/>
-      <c r="H17" s="27"/>
-      <c r="I17" s="27"/>
-      <c r="J17" s="27"/>
-      <c r="K17" s="27"/>
-      <c r="L17" s="27"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="26"/>
+      <c r="I17" s="26"/>
+      <c r="J17" s="26"/>
+      <c r="K17" s="26"/>
+      <c r="L17" s="26"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="26"/>
-      <c r="C18" s="28"/>
-      <c r="D18" s="21">
+      <c r="B18" s="25"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="20">
         <f>IF(D15&lt;=($B7+1),$B8,$B10)</f>
         <v>0.1</v>
       </c>
-      <c r="E18" s="21">
+      <c r="E18" s="20">
         <f>IF(E15&lt;=($B7+1),$B8,$B10)</f>
         <v>0.1</v>
       </c>
-      <c r="F18" s="21">
+      <c r="F18" s="20">
         <f>IF(F15&lt;=($B7+1),$B8,$B10)</f>
         <v>0.1</v>
       </c>
-      <c r="G18" s="21">
+      <c r="G18" s="20">
         <f>IF(G15&lt;=($B7+1),$B8,$B10)</f>
         <v>0.1</v>
       </c>
-      <c r="H18" s="21">
+      <c r="H18" s="20">
         <f>IF(G15&lt;=($B7+1),$B8,$B10)</f>
         <v>0.1</v>
       </c>
-      <c r="I18" s="21">
+      <c r="I18" s="20">
         <f t="shared" ref="I18:L18" si="0">IF(I15&lt;=($B7+1),$B8,$B10)</f>
         <v>0.05</v>
       </c>
-      <c r="J18" s="21">
+      <c r="J18" s="20">
         <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
-      <c r="K18" s="21">
+      <c r="K18" s="20">
         <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
-      <c r="L18" s="21">
+      <c r="L18" s="20">
         <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
@@ -1182,44 +1181,44 @@
       <c r="A19" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B19" s="26"/>
-      <c r="C19" s="22">
+      <c r="B19" s="25"/>
+      <c r="C19" s="21">
         <f>B5-(B6*B2)</f>
         <v>300000</v>
       </c>
-      <c r="D19" s="22">
+      <c r="D19" s="21">
         <f>C19*(1+D18)</f>
         <v>330000</v>
       </c>
-      <c r="E19" s="22">
+      <c r="E19" s="21">
         <f t="shared" ref="E19:L19" si="1">D19*(1+E18)</f>
         <v>363000.00000000006</v>
       </c>
-      <c r="F19" s="22">
+      <c r="F19" s="21">
         <f t="shared" si="1"/>
         <v>399300.00000000012</v>
       </c>
-      <c r="G19" s="22">
+      <c r="G19" s="21">
         <f t="shared" si="1"/>
         <v>439230.00000000017</v>
       </c>
-      <c r="H19" s="22">
+      <c r="H19" s="21">
         <f t="shared" si="1"/>
         <v>483153.00000000023</v>
       </c>
-      <c r="I19" s="22">
+      <c r="I19" s="21">
         <f t="shared" si="1"/>
         <v>507310.65000000026</v>
       </c>
-      <c r="J19" s="22">
+      <c r="J19" s="21">
         <f t="shared" si="1"/>
         <v>532676.18250000034</v>
       </c>
-      <c r="K19" s="22">
+      <c r="K19" s="21">
         <f t="shared" si="1"/>
         <v>559309.99162500037</v>
       </c>
-      <c r="L19" s="22">
+      <c r="L19" s="21">
         <f t="shared" si="1"/>
         <v>587275.49120625039</v>
       </c>
@@ -1228,44 +1227,44 @@
       <c r="A20" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B20" s="26"/>
-      <c r="C20" s="22">
+      <c r="B20" s="25"/>
+      <c r="C20" s="21">
         <f>MIN(C19,$B3)</f>
         <v>300000</v>
       </c>
-      <c r="D20" s="22">
+      <c r="D20" s="21">
         <f t="shared" ref="D20:L20" si="2">MIN(D19,$B3)</f>
         <v>330000</v>
       </c>
-      <c r="E20" s="22">
+      <c r="E20" s="21">
         <f t="shared" si="2"/>
         <v>363000.00000000006</v>
       </c>
-      <c r="F20" s="22">
+      <c r="F20" s="21">
         <f t="shared" si="2"/>
         <v>399300.00000000012</v>
       </c>
-      <c r="G20" s="22">
+      <c r="G20" s="21">
         <f t="shared" si="2"/>
         <v>400000</v>
       </c>
-      <c r="H20" s="22">
+      <c r="H20" s="21">
         <f t="shared" si="2"/>
         <v>400000</v>
       </c>
-      <c r="I20" s="22">
+      <c r="I20" s="21">
         <f t="shared" si="2"/>
         <v>400000</v>
       </c>
-      <c r="J20" s="22">
+      <c r="J20" s="21">
         <f t="shared" si="2"/>
         <v>400000</v>
       </c>
-      <c r="K20" s="22">
+      <c r="K20" s="21">
         <f t="shared" si="2"/>
         <v>400000</v>
       </c>
-      <c r="L20" s="22">
+      <c r="L20" s="21">
         <f t="shared" si="2"/>
         <v>400000</v>
       </c>
@@ -1274,44 +1273,44 @@
       <c r="A21" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="26"/>
-      <c r="C21" s="23">
+      <c r="B21" s="25"/>
+      <c r="C21" s="22">
         <f>B4</f>
         <v>4</v>
       </c>
-      <c r="D21" s="24">
+      <c r="D21" s="23">
         <f>C21*(1+$B11)</f>
         <v>4.2</v>
       </c>
-      <c r="E21" s="24">
+      <c r="E21" s="23">
         <f t="shared" ref="E21:L21" si="3">D21*(1+$B11)</f>
         <v>4.41</v>
       </c>
-      <c r="F21" s="24">
+      <c r="F21" s="23">
         <f t="shared" si="3"/>
         <v>4.6305000000000005</v>
       </c>
-      <c r="G21" s="24">
+      <c r="G21" s="23">
         <f t="shared" si="3"/>
         <v>4.8620250000000009</v>
       </c>
-      <c r="H21" s="24">
+      <c r="H21" s="23">
         <f t="shared" si="3"/>
         <v>5.1051262500000014</v>
       </c>
-      <c r="I21" s="24">
+      <c r="I21" s="23">
         <f t="shared" si="3"/>
         <v>5.3603825625000017</v>
       </c>
-      <c r="J21" s="24">
+      <c r="J21" s="23">
         <f t="shared" si="3"/>
         <v>5.6284016906250018</v>
       </c>
-      <c r="K21" s="24">
+      <c r="K21" s="23">
         <f t="shared" si="3"/>
         <v>5.9098217751562521</v>
       </c>
-      <c r="L21" s="24">
+      <c r="L21" s="23">
         <f t="shared" si="3"/>
         <v>6.2053128639140649</v>
       </c>
@@ -1320,44 +1319,44 @@
       <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="26"/>
-      <c r="C22" s="24">
+      <c r="B22" s="25"/>
+      <c r="C22" s="23">
         <f>B12</f>
         <v>2</v>
       </c>
-      <c r="D22" s="24">
+      <c r="D22" s="23">
         <f>C22*(1+$B13)</f>
         <v>2.12</v>
       </c>
-      <c r="E22" s="24">
+      <c r="E22" s="23">
         <f t="shared" ref="E22:L22" si="4">D22*(1+$B13)</f>
         <v>2.2472000000000003</v>
       </c>
-      <c r="F22" s="24">
+      <c r="F22" s="23">
         <f t="shared" si="4"/>
         <v>2.3820320000000006</v>
       </c>
-      <c r="G22" s="24">
+      <c r="G22" s="23">
         <f t="shared" si="4"/>
         <v>2.5249539200000006</v>
       </c>
-      <c r="H22" s="24">
+      <c r="H22" s="23">
         <f t="shared" si="4"/>
         <v>2.676451155200001</v>
       </c>
-      <c r="I22" s="24">
+      <c r="I22" s="23">
         <f t="shared" si="4"/>
         <v>2.8370382245120012</v>
       </c>
-      <c r="J22" s="24">
+      <c r="J22" s="23">
         <f t="shared" si="4"/>
         <v>3.0072605179827212</v>
       </c>
-      <c r="K22" s="24">
+      <c r="K22" s="23">
         <f t="shared" si="4"/>
         <v>3.1876961490616846</v>
       </c>
-      <c r="L22" s="24">
+      <c r="L22" s="23">
         <f t="shared" si="4"/>
         <v>3.3789579180053857</v>
       </c>
@@ -1366,44 +1365,44 @@
       <c r="A23" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B23" s="26"/>
-      <c r="C23" s="25">
+      <c r="B23" s="25"/>
+      <c r="C23" s="24">
         <f>C21*C20</f>
         <v>1200000</v>
       </c>
-      <c r="D23" s="25">
+      <c r="D23" s="24">
         <f t="shared" ref="D23:L23" si="5">D21*D20</f>
         <v>1386000</v>
       </c>
-      <c r="E23" s="25">
+      <c r="E23" s="24">
         <f t="shared" si="5"/>
         <v>1600830.0000000002</v>
       </c>
-      <c r="F23" s="25">
+      <c r="F23" s="24">
         <f t="shared" si="5"/>
         <v>1848958.6500000008</v>
       </c>
-      <c r="G23" s="25">
+      <c r="G23" s="24">
         <f t="shared" si="5"/>
         <v>1944810.0000000005</v>
       </c>
-      <c r="H23" s="25">
+      <c r="H23" s="24">
         <f t="shared" si="5"/>
         <v>2042050.5000000005</v>
       </c>
-      <c r="I23" s="25">
+      <c r="I23" s="24">
         <f t="shared" si="5"/>
         <v>2144153.0250000008</v>
       </c>
-      <c r="J23" s="25">
+      <c r="J23" s="24">
         <f t="shared" si="5"/>
         <v>2251360.6762500009</v>
       </c>
-      <c r="K23" s="25">
+      <c r="K23" s="24">
         <f t="shared" si="5"/>
         <v>2363928.710062501</v>
       </c>
-      <c r="L23" s="25">
+      <c r="L23" s="24">
         <f t="shared" si="5"/>
         <v>2482125.1455656257</v>
       </c>
@@ -1412,44 +1411,44 @@
       <c r="A24" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B24" s="26"/>
-      <c r="C24" s="25">
+      <c r="B24" s="25"/>
+      <c r="C24" s="24">
         <f>C22*C20</f>
         <v>600000</v>
       </c>
-      <c r="D24" s="25">
+      <c r="D24" s="24">
         <f t="shared" ref="D24:L24" si="6">D22*D20</f>
         <v>699600</v>
       </c>
-      <c r="E24" s="25">
+      <c r="E24" s="24">
         <f t="shared" si="6"/>
         <v>815733.60000000021</v>
       </c>
-      <c r="F24" s="25">
+      <c r="F24" s="24">
         <f t="shared" si="6"/>
         <v>951145.37760000047</v>
       </c>
-      <c r="G24" s="25">
+      <c r="G24" s="24">
         <f t="shared" si="6"/>
         <v>1009981.5680000002</v>
       </c>
-      <c r="H24" s="25">
+      <c r="H24" s="24">
         <f t="shared" si="6"/>
         <v>1070580.4620800004</v>
       </c>
-      <c r="I24" s="25">
+      <c r="I24" s="24">
         <f t="shared" si="6"/>
         <v>1134815.2898048004</v>
       </c>
-      <c r="J24" s="25">
+      <c r="J24" s="24">
         <f t="shared" si="6"/>
         <v>1202904.2071930885</v>
       </c>
-      <c r="K24" s="25">
+      <c r="K24" s="24">
         <f t="shared" si="6"/>
         <v>1275078.4596246739</v>
       </c>
-      <c r="L24" s="25">
+      <c r="L24" s="24">
         <f t="shared" si="6"/>
         <v>1351583.1672021542</v>
       </c>
@@ -1458,47 +1457,47 @@
       <c r="A25" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B25" s="20">
+      <c r="B25" s="19">
         <f>-B17</f>
         <v>-2100000</v>
       </c>
-      <c r="C25" s="25">
+      <c r="C25" s="24">
         <f>C23-C24</f>
         <v>600000</v>
       </c>
-      <c r="D25" s="25">
+      <c r="D25" s="24">
         <f t="shared" ref="D25:L25" si="7">D23-D24</f>
         <v>686400</v>
       </c>
-      <c r="E25" s="25">
+      <c r="E25" s="24">
         <f t="shared" si="7"/>
         <v>785096.4</v>
       </c>
-      <c r="F25" s="25">
+      <c r="F25" s="24">
         <f t="shared" si="7"/>
         <v>897813.27240000037</v>
       </c>
-      <c r="G25" s="25">
+      <c r="G25" s="24">
         <f t="shared" si="7"/>
         <v>934828.43200000026</v>
       </c>
-      <c r="H25" s="25">
+      <c r="H25" s="24">
         <f t="shared" si="7"/>
         <v>971470.03792000003</v>
       </c>
-      <c r="I25" s="25">
+      <c r="I25" s="24">
         <f t="shared" si="7"/>
         <v>1009337.7351952004</v>
       </c>
-      <c r="J25" s="25">
+      <c r="J25" s="24">
         <f t="shared" si="7"/>
         <v>1048456.4690569125</v>
       </c>
-      <c r="K25" s="25">
+      <c r="K25" s="24">
         <f t="shared" si="7"/>
         <v>1088850.2504378271</v>
       </c>
-      <c r="L25" s="25">
+      <c r="L25" s="24">
         <f t="shared" si="7"/>
         <v>1130541.9783634716</v>
       </c>

--- a/assets/public/Chapter_6_Building_A_Model/documents/resources/Question_6.08.xlsm 2018-09-19/Sample Model Question Final.xlsx
+++ b/assets/public/Chapter_6_Building_A_Model/documents/resources/Question_6.08.xlsm 2018-09-19/Sample Model Question Final.xlsx
@@ -5,7 +5,7 @@
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kartik.COMPRO\Dropbox\HBP - Spreadsheet Modeling\Chapter_6_Building_A_Model\documents\resources\Question_6.08.xlsm 2018-09-19\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Prashant.COMPRO\Dropbox\HBP - Spreadsheet Modeling\Chapter_6_Building_A_Model\documents\resources\Question_6.08.xlsm 2018-09-19\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -58,9 +58,6 @@
     <t>NPV of profits</t>
   </si>
   <si>
-    <t>Annual Capacity</t>
-  </si>
-  <si>
     <t>Plant fixed cost</t>
   </si>
   <si>
@@ -110,6 +107,9 @@
   </si>
   <si>
     <t>Year 1 variable cost of production</t>
+  </si>
+  <si>
+    <t>Annual capacity</t>
   </si>
 </sst>
 </file>
@@ -123,7 +123,7 @@
     <numFmt numFmtId="166" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="167" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="168" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="171" formatCode="m/d/yyyy;@"/>
+    <numFmt numFmtId="169" formatCode="m/d/yyyy;@"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -290,38 +290,80 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="168" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="2" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="2" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="2" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="167" fontId="2" fillId="4" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="44" fontId="2" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="2" fillId="5" borderId="2" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="2" fillId="5" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="2" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="2" fillId="5" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="2" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="2" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="2" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="2" fillId="6" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="2" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="2" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="5" borderId="2" xfId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="169" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="168" fontId="2" fillId="5" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="168" fontId="2" fillId="6" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="168" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="5" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="168" fontId="2" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="46">
     <cellStyle name="Comma" xfId="2" builtinId="3"/>
@@ -720,12 +762,14 @@
   </sheetPr>
   <dimension ref="A1:P34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" style="22" customWidth="1"/>
     <col min="3" max="3" width="43.7109375" style="1" customWidth="1"/>
     <col min="4" max="12" width="11.5703125" style="1" customWidth="1"/>
     <col min="13" max="13" width="9.85546875" style="1" customWidth="1"/>
@@ -734,21 +778,21 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B1" s="11">
         <v>500000</v>
       </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
       <c r="M1" s="2"/>
       <c r="N1" s="2"/>
       <c r="O1"/>
@@ -756,23 +800,23 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B2" s="12">
         <v>4</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
+      <c r="C2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
       <c r="O2"/>
@@ -780,21 +824,21 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="16">
+        <v>26</v>
+      </c>
+      <c r="B3" s="10">
         <v>400000</v>
       </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
       <c r="O3"/>
@@ -802,21 +846,21 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="17">
+        <v>15</v>
+      </c>
+      <c r="B4" s="13">
         <v>4</v>
       </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
       <c r="O4"/>
@@ -826,21 +870,21 @@
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="13">
+      <c r="B5" s="14">
         <v>500000</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="8"/>
+      <c r="C5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
       <c r="O5"/>
@@ -850,21 +894,21 @@
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="13">
+      <c r="B6" s="14">
         <v>50000</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
+      <c r="C6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
       <c r="O6"/>
@@ -872,21 +916,21 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" s="14">
+        <v>22</v>
+      </c>
+      <c r="B7" s="15">
         <v>5</v>
       </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
       <c r="O7"/>
@@ -896,19 +940,19 @@
       <c r="A8" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="15">
+      <c r="B8" s="16">
         <v>0.1</v>
       </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
       <c r="O8"/>
@@ -916,22 +960,22 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="15">
+        <v>13</v>
+      </c>
+      <c r="B9" s="16">
         <f>1/2</f>
         <v>0.5</v>
       </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
       <c r="O9"/>
@@ -941,20 +985,20 @@
       <c r="A10" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="18">
+      <c r="B10" s="17">
         <f>B9*B8</f>
         <v>0.05</v>
       </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="8"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
       <c r="O10"/>
@@ -962,21 +1006,21 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" s="15">
+        <v>18</v>
+      </c>
+      <c r="B11" s="16">
         <v>0.05</v>
       </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="8"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
       <c r="O11"/>
@@ -984,21 +1028,21 @@
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B12" s="12">
         <v>2</v>
       </c>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="8"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
       <c r="O12"/>
@@ -1008,19 +1052,19 @@
       <c r="A13" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B13" s="15">
+      <c r="B13" s="16">
         <v>0.06</v>
       </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="6"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
       <c r="M13"/>
       <c r="N13"/>
       <c r="O13"/>
@@ -1030,333 +1074,333 @@
       <c r="A14" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="15">
+      <c r="B14" s="16">
         <v>0.15</v>
       </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="6"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
       <c r="M14"/>
       <c r="N14"/>
       <c r="O14"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B15" s="5"/>
-      <c r="C15" s="5">
+      <c r="B15" s="18"/>
+      <c r="C15" s="18">
         <v>1</v>
       </c>
-      <c r="D15" s="5">
+      <c r="D15" s="18">
         <v>2</v>
       </c>
-      <c r="E15" s="5">
+      <c r="E15" s="18">
         <v>3</v>
       </c>
-      <c r="F15" s="5">
+      <c r="F15" s="18">
         <v>4</v>
       </c>
-      <c r="G15" s="5">
+      <c r="G15" s="18">
         <v>5</v>
       </c>
-      <c r="H15" s="5">
+      <c r="H15" s="18">
         <v>6</v>
       </c>
-      <c r="I15" s="5">
+      <c r="I15" s="18">
         <v>7</v>
       </c>
-      <c r="J15" s="5">
+      <c r="J15" s="18">
         <v>8</v>
       </c>
-      <c r="K15" s="5">
+      <c r="K15" s="18">
         <v>9</v>
       </c>
-      <c r="L15" s="5">
+      <c r="L15" s="18">
         <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B16" s="28">
+      <c r="B16" s="19">
         <v>40909</v>
       </c>
-      <c r="C16" s="28">
+      <c r="C16" s="19">
         <v>41455</v>
       </c>
-      <c r="D16" s="28">
+      <c r="D16" s="19">
         <v>41820</v>
       </c>
-      <c r="E16" s="28">
+      <c r="E16" s="19">
         <v>42185</v>
       </c>
-      <c r="F16" s="28">
+      <c r="F16" s="19">
         <v>42551</v>
       </c>
-      <c r="G16" s="28">
+      <c r="G16" s="19">
         <v>42916</v>
       </c>
-      <c r="H16" s="28">
+      <c r="H16" s="19">
         <v>43281</v>
       </c>
-      <c r="I16" s="28">
+      <c r="I16" s="19">
         <v>43646</v>
       </c>
-      <c r="J16" s="28">
+      <c r="J16" s="19">
         <v>44012</v>
       </c>
-      <c r="K16" s="28">
+      <c r="K16" s="19">
         <v>44377</v>
       </c>
-      <c r="L16" s="28">
+      <c r="L16" s="19">
         <v>44742</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B17" s="19">
+        <v>19</v>
+      </c>
+      <c r="B17" s="20">
         <f>B1+(B2*B3)</f>
         <v>2100000</v>
       </c>
-      <c r="C17" s="26"/>
-      <c r="D17" s="26"/>
-      <c r="E17" s="26"/>
-      <c r="F17" s="26"/>
-      <c r="G17" s="26"/>
-      <c r="H17" s="26"/>
-      <c r="I17" s="26"/>
-      <c r="J17" s="26"/>
-      <c r="K17" s="26"/>
-      <c r="L17" s="26"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="24"/>
+      <c r="I17" s="24"/>
+      <c r="J17" s="24"/>
+      <c r="K17" s="24"/>
+      <c r="L17" s="24"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B18" s="25"/>
-      <c r="C18" s="27"/>
-      <c r="D18" s="20">
+        <v>12</v>
+      </c>
+      <c r="B18" s="21"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="26">
         <f>IF(D15&lt;=($B7+1),$B8,$B10)</f>
         <v>0.1</v>
       </c>
-      <c r="E18" s="20">
+      <c r="E18" s="26">
         <f>IF(E15&lt;=($B7+1),$B8,$B10)</f>
         <v>0.1</v>
       </c>
-      <c r="F18" s="20">
+      <c r="F18" s="26">
         <f>IF(F15&lt;=($B7+1),$B8,$B10)</f>
         <v>0.1</v>
       </c>
-      <c r="G18" s="20">
+      <c r="G18" s="26">
         <f>IF(G15&lt;=($B7+1),$B8,$B10)</f>
         <v>0.1</v>
       </c>
-      <c r="H18" s="20">
+      <c r="H18" s="26">
         <f>IF(G15&lt;=($B7+1),$B8,$B10)</f>
         <v>0.1</v>
       </c>
-      <c r="I18" s="20">
+      <c r="I18" s="26">
         <f t="shared" ref="I18:L18" si="0">IF(I15&lt;=($B7+1),$B8,$B10)</f>
         <v>0.05</v>
       </c>
-      <c r="J18" s="20">
+      <c r="J18" s="26">
         <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
-      <c r="K18" s="20">
+      <c r="K18" s="26">
         <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
-      <c r="L18" s="20">
+      <c r="L18" s="26">
         <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B19" s="25"/>
-      <c r="C19" s="21">
+        <v>10</v>
+      </c>
+      <c r="B19" s="21"/>
+      <c r="C19" s="27">
         <f>B5-(B6*B2)</f>
         <v>300000</v>
       </c>
-      <c r="D19" s="21">
+      <c r="D19" s="27">
         <f>C19*(1+D18)</f>
         <v>330000</v>
       </c>
-      <c r="E19" s="21">
+      <c r="E19" s="27">
         <f t="shared" ref="E19:L19" si="1">D19*(1+E18)</f>
         <v>363000.00000000006</v>
       </c>
-      <c r="F19" s="21">
+      <c r="F19" s="27">
         <f t="shared" si="1"/>
         <v>399300.00000000012</v>
       </c>
-      <c r="G19" s="21">
+      <c r="G19" s="27">
         <f t="shared" si="1"/>
         <v>439230.00000000017</v>
       </c>
-      <c r="H19" s="21">
+      <c r="H19" s="27">
         <f t="shared" si="1"/>
         <v>483153.00000000023</v>
       </c>
-      <c r="I19" s="21">
+      <c r="I19" s="27">
         <f t="shared" si="1"/>
         <v>507310.65000000026</v>
       </c>
-      <c r="J19" s="21">
+      <c r="J19" s="27">
         <f t="shared" si="1"/>
         <v>532676.18250000034</v>
       </c>
-      <c r="K19" s="21">
+      <c r="K19" s="27">
         <f t="shared" si="1"/>
         <v>559309.99162500037</v>
       </c>
-      <c r="L19" s="21">
+      <c r="L19" s="27">
         <f t="shared" si="1"/>
         <v>587275.49120625039</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B20" s="25"/>
-      <c r="C20" s="21">
+        <v>11</v>
+      </c>
+      <c r="B20" s="21"/>
+      <c r="C20" s="27">
         <f>MIN(C19,$B3)</f>
         <v>300000</v>
       </c>
-      <c r="D20" s="21">
+      <c r="D20" s="27">
         <f t="shared" ref="D20:L20" si="2">MIN(D19,$B3)</f>
         <v>330000</v>
       </c>
-      <c r="E20" s="21">
+      <c r="E20" s="27">
         <f t="shared" si="2"/>
         <v>363000.00000000006</v>
       </c>
-      <c r="F20" s="21">
+      <c r="F20" s="27">
         <f t="shared" si="2"/>
         <v>399300.00000000012</v>
       </c>
-      <c r="G20" s="21">
+      <c r="G20" s="27">
         <f t="shared" si="2"/>
         <v>400000</v>
       </c>
-      <c r="H20" s="21">
+      <c r="H20" s="27">
         <f t="shared" si="2"/>
         <v>400000</v>
       </c>
-      <c r="I20" s="21">
+      <c r="I20" s="27">
         <f t="shared" si="2"/>
         <v>400000</v>
       </c>
-      <c r="J20" s="21">
+      <c r="J20" s="27">
         <f t="shared" si="2"/>
         <v>400000</v>
       </c>
-      <c r="K20" s="21">
+      <c r="K20" s="27">
         <f t="shared" si="2"/>
         <v>400000</v>
       </c>
-      <c r="L20" s="21">
+      <c r="L20" s="27">
         <f t="shared" si="2"/>
         <v>400000</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B21" s="25"/>
-      <c r="C21" s="22">
+        <v>21</v>
+      </c>
+      <c r="B21" s="21"/>
+      <c r="C21" s="28">
         <f>B4</f>
         <v>4</v>
       </c>
-      <c r="D21" s="23">
+      <c r="D21" s="29">
         <f>C21*(1+$B11)</f>
         <v>4.2</v>
       </c>
-      <c r="E21" s="23">
+      <c r="E21" s="29">
         <f t="shared" ref="E21:L21" si="3">D21*(1+$B11)</f>
         <v>4.41</v>
       </c>
-      <c r="F21" s="23">
+      <c r="F21" s="29">
         <f t="shared" si="3"/>
         <v>4.6305000000000005</v>
       </c>
-      <c r="G21" s="23">
+      <c r="G21" s="29">
         <f t="shared" si="3"/>
         <v>4.8620250000000009</v>
       </c>
-      <c r="H21" s="23">
+      <c r="H21" s="29">
         <f t="shared" si="3"/>
         <v>5.1051262500000014</v>
       </c>
-      <c r="I21" s="23">
+      <c r="I21" s="29">
         <f t="shared" si="3"/>
         <v>5.3603825625000017</v>
       </c>
-      <c r="J21" s="23">
+      <c r="J21" s="29">
         <f t="shared" si="3"/>
         <v>5.6284016906250018</v>
       </c>
-      <c r="K21" s="23">
+      <c r="K21" s="29">
         <f t="shared" si="3"/>
         <v>5.9098217751562521</v>
       </c>
-      <c r="L21" s="23">
+      <c r="L21" s="29">
         <f t="shared" si="3"/>
         <v>6.2053128639140649</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B22" s="25"/>
-      <c r="C22" s="23">
+        <v>20</v>
+      </c>
+      <c r="B22" s="21"/>
+      <c r="C22" s="29">
         <f>B12</f>
         <v>2</v>
       </c>
-      <c r="D22" s="23">
+      <c r="D22" s="29">
         <f>C22*(1+$B13)</f>
         <v>2.12</v>
       </c>
-      <c r="E22" s="23">
+      <c r="E22" s="29">
         <f t="shared" ref="E22:L22" si="4">D22*(1+$B13)</f>
         <v>2.2472000000000003</v>
       </c>
-      <c r="F22" s="23">
+      <c r="F22" s="29">
         <f t="shared" si="4"/>
         <v>2.3820320000000006</v>
       </c>
-      <c r="G22" s="23">
+      <c r="G22" s="29">
         <f t="shared" si="4"/>
         <v>2.5249539200000006</v>
       </c>
-      <c r="H22" s="23">
+      <c r="H22" s="29">
         <f t="shared" si="4"/>
         <v>2.676451155200001</v>
       </c>
-      <c r="I22" s="23">
+      <c r="I22" s="29">
         <f t="shared" si="4"/>
         <v>2.8370382245120012</v>
       </c>
-      <c r="J22" s="23">
+      <c r="J22" s="29">
         <f t="shared" si="4"/>
         <v>3.0072605179827212</v>
       </c>
-      <c r="K22" s="23">
+      <c r="K22" s="29">
         <f t="shared" si="4"/>
         <v>3.1876961490616846</v>
       </c>
-      <c r="L22" s="23">
+      <c r="L22" s="29">
         <f t="shared" si="4"/>
         <v>3.3789579180053857</v>
       </c>
@@ -1365,44 +1409,44 @@
       <c r="A23" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B23" s="25"/>
-      <c r="C23" s="24">
+      <c r="B23" s="21"/>
+      <c r="C23" s="30">
         <f>C21*C20</f>
         <v>1200000</v>
       </c>
-      <c r="D23" s="24">
+      <c r="D23" s="30">
         <f t="shared" ref="D23:L23" si="5">D21*D20</f>
         <v>1386000</v>
       </c>
-      <c r="E23" s="24">
+      <c r="E23" s="30">
         <f t="shared" si="5"/>
         <v>1600830.0000000002</v>
       </c>
-      <c r="F23" s="24">
+      <c r="F23" s="30">
         <f t="shared" si="5"/>
         <v>1848958.6500000008</v>
       </c>
-      <c r="G23" s="24">
+      <c r="G23" s="30">
         <f t="shared" si="5"/>
         <v>1944810.0000000005</v>
       </c>
-      <c r="H23" s="24">
+      <c r="H23" s="30">
         <f t="shared" si="5"/>
         <v>2042050.5000000005</v>
       </c>
-      <c r="I23" s="24">
+      <c r="I23" s="30">
         <f t="shared" si="5"/>
         <v>2144153.0250000008</v>
       </c>
-      <c r="J23" s="24">
+      <c r="J23" s="30">
         <f t="shared" si="5"/>
         <v>2251360.6762500009</v>
       </c>
-      <c r="K23" s="24">
+      <c r="K23" s="30">
         <f t="shared" si="5"/>
         <v>2363928.710062501</v>
       </c>
-      <c r="L23" s="24">
+      <c r="L23" s="30">
         <f t="shared" si="5"/>
         <v>2482125.1455656257</v>
       </c>
@@ -1411,93 +1455,93 @@
       <c r="A24" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B24" s="25"/>
-      <c r="C24" s="24">
+      <c r="B24" s="21"/>
+      <c r="C24" s="30">
         <f>C22*C20</f>
         <v>600000</v>
       </c>
-      <c r="D24" s="24">
+      <c r="D24" s="30">
         <f t="shared" ref="D24:L24" si="6">D22*D20</f>
         <v>699600</v>
       </c>
-      <c r="E24" s="24">
+      <c r="E24" s="30">
         <f t="shared" si="6"/>
         <v>815733.60000000021</v>
       </c>
-      <c r="F24" s="24">
+      <c r="F24" s="30">
         <f t="shared" si="6"/>
         <v>951145.37760000047</v>
       </c>
-      <c r="G24" s="24">
+      <c r="G24" s="30">
         <f t="shared" si="6"/>
         <v>1009981.5680000002</v>
       </c>
-      <c r="H24" s="24">
+      <c r="H24" s="30">
         <f t="shared" si="6"/>
         <v>1070580.4620800004</v>
       </c>
-      <c r="I24" s="24">
+      <c r="I24" s="30">
         <f t="shared" si="6"/>
         <v>1134815.2898048004</v>
       </c>
-      <c r="J24" s="24">
+      <c r="J24" s="30">
         <f t="shared" si="6"/>
         <v>1202904.2071930885</v>
       </c>
-      <c r="K24" s="24">
+      <c r="K24" s="30">
         <f t="shared" si="6"/>
         <v>1275078.4596246739</v>
       </c>
-      <c r="L24" s="24">
+      <c r="L24" s="30">
         <f t="shared" si="6"/>
         <v>1351583.1672021542</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" s="19">
+        <v>23</v>
+      </c>
+      <c r="B25" s="20">
         <f>-B17</f>
         <v>-2100000</v>
       </c>
-      <c r="C25" s="24">
+      <c r="C25" s="30">
         <f>C23-C24</f>
         <v>600000</v>
       </c>
-      <c r="D25" s="24">
+      <c r="D25" s="30">
         <f t="shared" ref="D25:L25" si="7">D23-D24</f>
         <v>686400</v>
       </c>
-      <c r="E25" s="24">
+      <c r="E25" s="30">
         <f t="shared" si="7"/>
         <v>785096.4</v>
       </c>
-      <c r="F25" s="24">
+      <c r="F25" s="30">
         <f t="shared" si="7"/>
         <v>897813.27240000037</v>
       </c>
-      <c r="G25" s="24">
+      <c r="G25" s="30">
         <f t="shared" si="7"/>
         <v>934828.43200000026</v>
       </c>
-      <c r="H25" s="24">
+      <c r="H25" s="30">
         <f t="shared" si="7"/>
         <v>971470.03792000003</v>
       </c>
-      <c r="I25" s="24">
+      <c r="I25" s="30">
         <f t="shared" si="7"/>
         <v>1009337.7351952004</v>
       </c>
-      <c r="J25" s="24">
+      <c r="J25" s="30">
         <f t="shared" si="7"/>
         <v>1048456.4690569125</v>
       </c>
-      <c r="K25" s="24">
+      <c r="K25" s="30">
         <f t="shared" si="7"/>
         <v>1088850.2504378271</v>
       </c>
-      <c r="L25" s="24">
+      <c r="L25" s="30">
         <f t="shared" si="7"/>
         <v>1130541.9783634716</v>
       </c>
@@ -1508,7 +1552,7 @@
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="4">
+      <c r="A28" s="23">
         <f>XNPV(B14,B25:L25,B16:L16)</f>
         <v>1879262.6563391683</v>
       </c>

--- a/assets/public/Chapter_6_Building_A_Model/documents/resources/Question_6.08.xlsm 2018-09-19/Sample Model Question Final.xlsx
+++ b/assets/public/Chapter_6_Building_A_Model/documents/resources/Question_6.08.xlsm 2018-09-19/Sample Model Question Final.xlsx
@@ -5,11 +5,11 @@
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Prashant.COMPRO\Dropbox\HBP - Spreadsheet Modeling\Chapter_6_Building_A_Model\documents\resources\Question_6.08.xlsm 2018-09-19\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kartik.COMPRO\Dropbox\HBP - Spreadsheet Modeling\Chapter_6_Building_A_Model\documents\resources\Question_6.08.xlsm 2018-09-19\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="450" windowWidth="24000" windowHeight="9000"/>
+    <workbookView xWindow="0" yWindow="900" windowWidth="24000" windowHeight="9000"/>
   </bookViews>
   <sheets>
     <sheet name="data table " sheetId="4" r:id="rId1"/>
@@ -290,11 +290,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -413,19 +411,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="45" builtinId="5"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <font>
         <condense val="0"/>
@@ -760,402 +746,345 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:P34"/>
+  <dimension ref="A1:L28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" style="22" customWidth="1"/>
-    <col min="3" max="3" width="43.7109375" style="1" customWidth="1"/>
-    <col min="4" max="12" width="11.5703125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.85546875" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="8.85546875" style="1"/>
+    <col min="1" max="1" width="31.140625" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" customWidth="1"/>
+    <col min="3" max="3" width="43.7109375" customWidth="1"/>
+    <col min="4" max="12" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="11">
+      <c r="B1" s="9">
         <v>500000</v>
       </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1"/>
-      <c r="P1"/>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="12">
+      <c r="B2" s="10">
         <v>4</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2"/>
-      <c r="P2"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="10">
+      <c r="B3" s="8">
         <v>400000</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3"/>
-      <c r="P3"/>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="13">
+      <c r="B4" s="11">
         <v>4</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4"/>
-      <c r="P4"/>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="14">
+      <c r="B5" s="12">
         <v>500000</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5"/>
-      <c r="P5"/>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="14">
+      <c r="B6" s="12">
         <v>50000</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6"/>
-      <c r="P6"/>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="15">
+      <c r="B7" s="13">
         <v>5</v>
       </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-      <c r="O7"/>
-      <c r="P7"/>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="16">
+      <c r="B8" s="14">
         <v>0.1</v>
       </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-      <c r="O8"/>
-      <c r="P8"/>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="16">
+      <c r="B9" s="14">
         <f>1/2</f>
         <v>0.5</v>
       </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
-      <c r="O9"/>
-      <c r="P9"/>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="17">
+      <c r="B10" s="15">
         <f>B9*B8</f>
         <v>0.05</v>
       </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-      <c r="O10"/>
-      <c r="P10"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="16">
+      <c r="B11" s="14">
         <v>0.05</v>
       </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="7"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
-      <c r="O11"/>
-      <c r="P11"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="12">
+      <c r="B12" s="10">
         <v>2</v>
       </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="7"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
-      <c r="O12"/>
-      <c r="P12"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B13" s="16">
+      <c r="B13" s="14">
         <v>0.06</v>
       </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
-      <c r="M13"/>
-      <c r="N13"/>
-      <c r="O13"/>
-      <c r="P13"/>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="16">
+      <c r="B14" s="14">
         <v>0.15</v>
       </c>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
-      <c r="M14"/>
-      <c r="N14"/>
-      <c r="O14"/>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B15" s="18"/>
-      <c r="C15" s="18">
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="16">
         <v>1</v>
       </c>
-      <c r="D15" s="18">
+      <c r="D15" s="16">
         <v>2</v>
       </c>
-      <c r="E15" s="18">
+      <c r="E15" s="16">
         <v>3</v>
       </c>
-      <c r="F15" s="18">
+      <c r="F15" s="16">
         <v>4</v>
       </c>
-      <c r="G15" s="18">
+      <c r="G15" s="16">
         <v>5</v>
       </c>
-      <c r="H15" s="18">
+      <c r="H15" s="16">
         <v>6</v>
       </c>
-      <c r="I15" s="18">
+      <c r="I15" s="16">
         <v>7</v>
       </c>
-      <c r="J15" s="18">
+      <c r="J15" s="16">
         <v>8</v>
       </c>
-      <c r="K15" s="18">
+      <c r="K15" s="16">
         <v>9</v>
       </c>
-      <c r="L15" s="18">
+      <c r="L15" s="16">
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B16" s="19">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="B16" s="17">
         <v>40909</v>
       </c>
-      <c r="C16" s="19">
+      <c r="C16" s="17">
         <v>41455</v>
       </c>
-      <c r="D16" s="19">
+      <c r="D16" s="17">
         <v>41820</v>
       </c>
-      <c r="E16" s="19">
+      <c r="E16" s="17">
         <v>42185</v>
       </c>
-      <c r="F16" s="19">
+      <c r="F16" s="17">
         <v>42551</v>
       </c>
-      <c r="G16" s="19">
+      <c r="G16" s="17">
         <v>42916</v>
       </c>
-      <c r="H16" s="19">
+      <c r="H16" s="17">
         <v>43281</v>
       </c>
-      <c r="I16" s="19">
+      <c r="I16" s="17">
         <v>43646</v>
       </c>
-      <c r="J16" s="19">
+      <c r="J16" s="17">
         <v>44012</v>
       </c>
-      <c r="K16" s="19">
+      <c r="K16" s="17">
         <v>44377</v>
       </c>
-      <c r="L16" s="19">
+      <c r="L16" s="17">
         <v>44742</v>
       </c>
     </row>
@@ -1163,60 +1092,60 @@
       <c r="A17" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="20">
+      <c r="B17" s="18">
         <f>B1+(B2*B3)</f>
         <v>2100000</v>
       </c>
-      <c r="C17" s="24"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="24"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="24"/>
-      <c r="H17" s="24"/>
-      <c r="I17" s="24"/>
-      <c r="J17" s="24"/>
-      <c r="K17" s="24"/>
-      <c r="L17" s="24"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="22"/>
+      <c r="J17" s="22"/>
+      <c r="K17" s="22"/>
+      <c r="L17" s="22"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="21"/>
-      <c r="C18" s="25"/>
-      <c r="D18" s="26">
+      <c r="B18" s="19"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="24">
         <f>IF(D15&lt;=($B7+1),$B8,$B10)</f>
         <v>0.1</v>
       </c>
-      <c r="E18" s="26">
+      <c r="E18" s="24">
         <f>IF(E15&lt;=($B7+1),$B8,$B10)</f>
         <v>0.1</v>
       </c>
-      <c r="F18" s="26">
+      <c r="F18" s="24">
         <f>IF(F15&lt;=($B7+1),$B8,$B10)</f>
         <v>0.1</v>
       </c>
-      <c r="G18" s="26">
+      <c r="G18" s="24">
         <f>IF(G15&lt;=($B7+1),$B8,$B10)</f>
         <v>0.1</v>
       </c>
-      <c r="H18" s="26">
+      <c r="H18" s="24">
         <f>IF(G15&lt;=($B7+1),$B8,$B10)</f>
         <v>0.1</v>
       </c>
-      <c r="I18" s="26">
+      <c r="I18" s="24">
         <f t="shared" ref="I18:L18" si="0">IF(I15&lt;=($B7+1),$B8,$B10)</f>
         <v>0.05</v>
       </c>
-      <c r="J18" s="26">
+      <c r="J18" s="24">
         <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
-      <c r="K18" s="26">
+      <c r="K18" s="24">
         <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
-      <c r="L18" s="26">
+      <c r="L18" s="24">
         <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
@@ -1225,44 +1154,44 @@
       <c r="A19" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B19" s="21"/>
-      <c r="C19" s="27">
+      <c r="B19" s="19"/>
+      <c r="C19" s="25">
         <f>B5-(B6*B2)</f>
         <v>300000</v>
       </c>
-      <c r="D19" s="27">
+      <c r="D19" s="25">
         <f>C19*(1+D18)</f>
         <v>330000</v>
       </c>
-      <c r="E19" s="27">
+      <c r="E19" s="25">
         <f t="shared" ref="E19:L19" si="1">D19*(1+E18)</f>
         <v>363000.00000000006</v>
       </c>
-      <c r="F19" s="27">
+      <c r="F19" s="25">
         <f t="shared" si="1"/>
         <v>399300.00000000012</v>
       </c>
-      <c r="G19" s="27">
+      <c r="G19" s="25">
         <f t="shared" si="1"/>
         <v>439230.00000000017</v>
       </c>
-      <c r="H19" s="27">
+      <c r="H19" s="25">
         <f t="shared" si="1"/>
         <v>483153.00000000023</v>
       </c>
-      <c r="I19" s="27">
+      <c r="I19" s="25">
         <f t="shared" si="1"/>
         <v>507310.65000000026</v>
       </c>
-      <c r="J19" s="27">
+      <c r="J19" s="25">
         <f t="shared" si="1"/>
         <v>532676.18250000034</v>
       </c>
-      <c r="K19" s="27">
+      <c r="K19" s="25">
         <f t="shared" si="1"/>
         <v>559309.99162500037</v>
       </c>
-      <c r="L19" s="27">
+      <c r="L19" s="25">
         <f t="shared" si="1"/>
         <v>587275.49120625039</v>
       </c>
@@ -1271,44 +1200,44 @@
       <c r="A20" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B20" s="21"/>
-      <c r="C20" s="27">
+      <c r="B20" s="19"/>
+      <c r="C20" s="25">
         <f>MIN(C19,$B3)</f>
         <v>300000</v>
       </c>
-      <c r="D20" s="27">
+      <c r="D20" s="25">
         <f t="shared" ref="D20:L20" si="2">MIN(D19,$B3)</f>
         <v>330000</v>
       </c>
-      <c r="E20" s="27">
+      <c r="E20" s="25">
         <f t="shared" si="2"/>
         <v>363000.00000000006</v>
       </c>
-      <c r="F20" s="27">
+      <c r="F20" s="25">
         <f t="shared" si="2"/>
         <v>399300.00000000012</v>
       </c>
-      <c r="G20" s="27">
+      <c r="G20" s="25">
         <f t="shared" si="2"/>
         <v>400000</v>
       </c>
-      <c r="H20" s="27">
+      <c r="H20" s="25">
         <f t="shared" si="2"/>
         <v>400000</v>
       </c>
-      <c r="I20" s="27">
+      <c r="I20" s="25">
         <f t="shared" si="2"/>
         <v>400000</v>
       </c>
-      <c r="J20" s="27">
+      <c r="J20" s="25">
         <f t="shared" si="2"/>
         <v>400000</v>
       </c>
-      <c r="K20" s="27">
+      <c r="K20" s="25">
         <f t="shared" si="2"/>
         <v>400000</v>
       </c>
-      <c r="L20" s="27">
+      <c r="L20" s="25">
         <f t="shared" si="2"/>
         <v>400000</v>
       </c>
@@ -1317,44 +1246,44 @@
       <c r="A21" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="21"/>
-      <c r="C21" s="28">
+      <c r="B21" s="19"/>
+      <c r="C21" s="26">
         <f>B4</f>
         <v>4</v>
       </c>
-      <c r="D21" s="29">
+      <c r="D21" s="27">
         <f>C21*(1+$B11)</f>
         <v>4.2</v>
       </c>
-      <c r="E21" s="29">
+      <c r="E21" s="27">
         <f t="shared" ref="E21:L21" si="3">D21*(1+$B11)</f>
         <v>4.41</v>
       </c>
-      <c r="F21" s="29">
+      <c r="F21" s="27">
         <f t="shared" si="3"/>
         <v>4.6305000000000005</v>
       </c>
-      <c r="G21" s="29">
+      <c r="G21" s="27">
         <f t="shared" si="3"/>
         <v>4.8620250000000009</v>
       </c>
-      <c r="H21" s="29">
+      <c r="H21" s="27">
         <f t="shared" si="3"/>
         <v>5.1051262500000014</v>
       </c>
-      <c r="I21" s="29">
+      <c r="I21" s="27">
         <f t="shared" si="3"/>
         <v>5.3603825625000017</v>
       </c>
-      <c r="J21" s="29">
+      <c r="J21" s="27">
         <f t="shared" si="3"/>
         <v>5.6284016906250018</v>
       </c>
-      <c r="K21" s="29">
+      <c r="K21" s="27">
         <f t="shared" si="3"/>
         <v>5.9098217751562521</v>
       </c>
-      <c r="L21" s="29">
+      <c r="L21" s="27">
         <f t="shared" si="3"/>
         <v>6.2053128639140649</v>
       </c>
@@ -1363,44 +1292,44 @@
       <c r="A22" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="21"/>
-      <c r="C22" s="29">
+      <c r="B22" s="19"/>
+      <c r="C22" s="27">
         <f>B12</f>
         <v>2</v>
       </c>
-      <c r="D22" s="29">
+      <c r="D22" s="27">
         <f>C22*(1+$B13)</f>
         <v>2.12</v>
       </c>
-      <c r="E22" s="29">
+      <c r="E22" s="27">
         <f t="shared" ref="E22:L22" si="4">D22*(1+$B13)</f>
         <v>2.2472000000000003</v>
       </c>
-      <c r="F22" s="29">
+      <c r="F22" s="27">
         <f t="shared" si="4"/>
         <v>2.3820320000000006</v>
       </c>
-      <c r="G22" s="29">
+      <c r="G22" s="27">
         <f t="shared" si="4"/>
         <v>2.5249539200000006</v>
       </c>
-      <c r="H22" s="29">
+      <c r="H22" s="27">
         <f t="shared" si="4"/>
         <v>2.676451155200001</v>
       </c>
-      <c r="I22" s="29">
+      <c r="I22" s="27">
         <f t="shared" si="4"/>
         <v>2.8370382245120012</v>
       </c>
-      <c r="J22" s="29">
+      <c r="J22" s="27">
         <f t="shared" si="4"/>
         <v>3.0072605179827212</v>
       </c>
-      <c r="K22" s="29">
+      <c r="K22" s="27">
         <f t="shared" si="4"/>
         <v>3.1876961490616846</v>
       </c>
-      <c r="L22" s="29">
+      <c r="L22" s="27">
         <f t="shared" si="4"/>
         <v>3.3789579180053857</v>
       </c>
@@ -1409,44 +1338,44 @@
       <c r="A23" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B23" s="21"/>
-      <c r="C23" s="30">
+      <c r="B23" s="19"/>
+      <c r="C23" s="28">
         <f>C21*C20</f>
         <v>1200000</v>
       </c>
-      <c r="D23" s="30">
+      <c r="D23" s="28">
         <f t="shared" ref="D23:L23" si="5">D21*D20</f>
         <v>1386000</v>
       </c>
-      <c r="E23" s="30">
+      <c r="E23" s="28">
         <f t="shared" si="5"/>
         <v>1600830.0000000002</v>
       </c>
-      <c r="F23" s="30">
+      <c r="F23" s="28">
         <f t="shared" si="5"/>
         <v>1848958.6500000008</v>
       </c>
-      <c r="G23" s="30">
+      <c r="G23" s="28">
         <f t="shared" si="5"/>
         <v>1944810.0000000005</v>
       </c>
-      <c r="H23" s="30">
+      <c r="H23" s="28">
         <f t="shared" si="5"/>
         <v>2042050.5000000005</v>
       </c>
-      <c r="I23" s="30">
+      <c r="I23" s="28">
         <f t="shared" si="5"/>
         <v>2144153.0250000008</v>
       </c>
-      <c r="J23" s="30">
+      <c r="J23" s="28">
         <f t="shared" si="5"/>
         <v>2251360.6762500009</v>
       </c>
-      <c r="K23" s="30">
+      <c r="K23" s="28">
         <f t="shared" si="5"/>
         <v>2363928.710062501</v>
       </c>
-      <c r="L23" s="30">
+      <c r="L23" s="28">
         <f t="shared" si="5"/>
         <v>2482125.1455656257</v>
       </c>
@@ -1455,44 +1384,44 @@
       <c r="A24" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B24" s="21"/>
-      <c r="C24" s="30">
+      <c r="B24" s="19"/>
+      <c r="C24" s="28">
         <f>C22*C20</f>
         <v>600000</v>
       </c>
-      <c r="D24" s="30">
+      <c r="D24" s="28">
         <f t="shared" ref="D24:L24" si="6">D22*D20</f>
         <v>699600</v>
       </c>
-      <c r="E24" s="30">
+      <c r="E24" s="28">
         <f t="shared" si="6"/>
         <v>815733.60000000021</v>
       </c>
-      <c r="F24" s="30">
+      <c r="F24" s="28">
         <f t="shared" si="6"/>
         <v>951145.37760000047</v>
       </c>
-      <c r="G24" s="30">
+      <c r="G24" s="28">
         <f t="shared" si="6"/>
         <v>1009981.5680000002</v>
       </c>
-      <c r="H24" s="30">
+      <c r="H24" s="28">
         <f t="shared" si="6"/>
         <v>1070580.4620800004</v>
       </c>
-      <c r="I24" s="30">
+      <c r="I24" s="28">
         <f t="shared" si="6"/>
         <v>1134815.2898048004</v>
       </c>
-      <c r="J24" s="30">
+      <c r="J24" s="28">
         <f t="shared" si="6"/>
         <v>1202904.2071930885</v>
       </c>
-      <c r="K24" s="30">
+      <c r="K24" s="28">
         <f t="shared" si="6"/>
         <v>1275078.4596246739</v>
       </c>
-      <c r="L24" s="30">
+      <c r="L24" s="28">
         <f t="shared" si="6"/>
         <v>1351583.1672021542</v>
       </c>
@@ -1501,81 +1430,99 @@
       <c r="A25" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="20">
+      <c r="B25" s="18">
         <f>-B17</f>
         <v>-2100000</v>
       </c>
-      <c r="C25" s="30">
+      <c r="C25" s="28">
         <f>C23-C24</f>
         <v>600000</v>
       </c>
-      <c r="D25" s="30">
+      <c r="D25" s="28">
         <f t="shared" ref="D25:L25" si="7">D23-D24</f>
         <v>686400</v>
       </c>
-      <c r="E25" s="30">
+      <c r="E25" s="28">
         <f t="shared" si="7"/>
         <v>785096.4</v>
       </c>
-      <c r="F25" s="30">
+      <c r="F25" s="28">
         <f t="shared" si="7"/>
         <v>897813.27240000037</v>
       </c>
-      <c r="G25" s="30">
+      <c r="G25" s="28">
         <f t="shared" si="7"/>
         <v>934828.43200000026</v>
       </c>
-      <c r="H25" s="30">
+      <c r="H25" s="28">
         <f t="shared" si="7"/>
         <v>971470.03792000003</v>
       </c>
-      <c r="I25" s="30">
+      <c r="I25" s="28">
         <f t="shared" si="7"/>
         <v>1009337.7351952004</v>
       </c>
-      <c r="J25" s="30">
+      <c r="J25" s="28">
         <f t="shared" si="7"/>
         <v>1048456.4690569125</v>
       </c>
-      <c r="K25" s="30">
+      <c r="K25" s="28">
         <f t="shared" si="7"/>
         <v>1088850.2504378271</v>
       </c>
-      <c r="L25" s="30">
+      <c r="L25" s="28">
         <f t="shared" si="7"/>
         <v>1130541.9783634716</v>
       </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" s="1"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="B27" s="20"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="23">
+      <c r="A28" s="21">
         <f>XNPV(B14,B25:L25,B16:L16)</f>
         <v>1879262.6563391683</v>
       </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="3"/>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="3"/>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A32" s="3"/>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="3"/>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="3"/>
+      <c r="B28" s="20"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="Q1:T13">
-    <cfRule type="top10" dxfId="2" priority="14" rank="1"/>
-  </conditionalFormatting>
   <conditionalFormatting sqref="G2:G12">
     <cfRule type="top10" dxfId="1" priority="2" rank="1"/>
     <cfRule type="top10" dxfId="0" priority="4" rank="1"/>

--- a/assets/public/Chapter_6_Building_A_Model/documents/resources/Question_6.08.xlsm 2018-09-19/Sample Model Question Final.xlsx
+++ b/assets/public/Chapter_6_Building_A_Model/documents/resources/Question_6.08.xlsm 2018-09-19/Sample Model Question Final.xlsx
@@ -5,7 +5,7 @@
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kartik.COMPRO\Dropbox\HBP - Spreadsheet Modeling\Chapter_6_Building_A_Model\documents\resources\Question_6.08.xlsm 2018-09-19\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Prashant.COMPRO\Dropbox\HBP - Spreadsheet Modeling\Chapter_6_Building_A_Model\documents\resources\Question_6.08.xlsm 2018-09-19\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="data table " sheetId="4" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Annual unit cost rate of increase</t>
   </si>
@@ -73,16 +73,7 @@
     <t>Steady/beginning</t>
   </si>
   <si>
-    <t>per unit of annual capacity</t>
-  </si>
-  <si>
     <t>Year 1 selling price</t>
-  </si>
-  <si>
-    <t>Demand if product is given away</t>
-  </si>
-  <si>
-    <t>Reduction in demand for each $1 price increase</t>
   </si>
   <si>
     <t>Annual price increase</t>
@@ -748,14 +739,14 @@
   </sheetPr>
   <dimension ref="A1:L28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31.140625" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" customWidth="1"/>
-    <col min="3" max="3" width="43.7109375" customWidth="1"/>
-    <col min="4" max="12" width="11.5703125" customWidth="1"/>
+    <col min="2" max="12" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -765,7 +756,6 @@
       <c r="B1" s="9">
         <v>500000</v>
       </c>
-      <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
       <c r="F1" s="3"/>
@@ -778,13 +768,10 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B2" s="10">
         <v>4</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>14</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
@@ -798,12 +785,11 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B3" s="8">
         <v>400000</v>
       </c>
-      <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="6"/>
@@ -816,12 +802,11 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B4" s="11">
         <v>4</v>
       </c>
-      <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="6"/>
@@ -839,9 +824,6 @@
       <c r="B5" s="12">
         <v>500000</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>16</v>
-      </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="6"/>
@@ -859,9 +841,6 @@
       <c r="B6" s="12">
         <v>50000</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>17</v>
-      </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="6"/>
@@ -874,12 +853,11 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B7" s="13">
         <v>5</v>
       </c>
-      <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="6"/>
@@ -897,7 +875,6 @@
       <c r="B8" s="14">
         <v>0.1</v>
       </c>
-      <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="6"/>
@@ -916,7 +893,6 @@
         <f>1/2</f>
         <v>0.5</v>
       </c>
-      <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="6"/>
@@ -935,7 +911,6 @@
         <f>B9*B8</f>
         <v>0.05</v>
       </c>
-      <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="6"/>
@@ -948,12 +923,11 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B11" s="14">
         <v>0.05</v>
       </c>
-      <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="6"/>
@@ -966,12 +940,11 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B12" s="10">
         <v>2</v>
       </c>
-      <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="6"/>
@@ -989,7 +962,6 @@
       <c r="B13" s="14">
         <v>0.06</v>
       </c>
-      <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="3"/>
@@ -1007,7 +979,6 @@
       <c r="B14" s="14">
         <v>0.15</v>
       </c>
-      <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="7"/>
       <c r="F14" s="3"/>
@@ -1090,7 +1061,7 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B17" s="18">
         <f>B1+(B2*B3)</f>
@@ -1244,7 +1215,7 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B21" s="19"/>
       <c r="C21" s="26">
@@ -1290,7 +1261,7 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B22" s="19"/>
       <c r="C22" s="27">
@@ -1428,7 +1399,7 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B25" s="18">
         <f>-B17</f>
